--- a/2COURSE/2SEM/Physics/lab_3_01/3.01.xlsx
+++ b/2COURSE/2SEM/Physics/lab_3_01/3.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\Physics\lab_3_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F8666C-443D-4ADB-9762-E13CE7C746DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB99B6F0-44FD-4DB2-A1CC-5CD1A0FD54D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4275" windowWidth="16440" windowHeight="28320" xr2:uid="{562D8774-50DF-4150-88DD-C9FFFABF1D31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{562D8774-50DF-4150-88DD-C9FFFABF1D31}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
@@ -360,7 +360,7 @@
                   <c:v>6.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4600000000000009</c:v>
+                  <c:v>6.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.8</c:v>
@@ -1638,7 +1638,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,10 +1729,10 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>9.4600000000000009</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
